--- a/teaching/traditional_assets/database/data/vietnam/vietnam_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_insurance_general.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.119</v>
+        <v>0.0999</v>
       </c>
       <c r="E2">
-        <v>0.0421</v>
+        <v>0.103</v>
+      </c>
+      <c r="F2">
+        <v>0.219</v>
       </c>
       <c r="G2">
-        <v>0.08596801190254787</v>
+        <v>0.09150696864111497</v>
       </c>
       <c r="H2">
-        <v>0.08596801190254787</v>
+        <v>0.09150696864111497</v>
       </c>
       <c r="I2">
-        <v>0.09373256462711547</v>
+        <v>0.08997055783743976</v>
       </c>
       <c r="J2">
-        <v>0.07633621637829474</v>
+        <v>0.07371135699102971</v>
       </c>
       <c r="K2">
-        <v>88.31999999999999</v>
+        <v>92.41</v>
       </c>
       <c r="L2">
-        <v>0.04106379021759345</v>
+        <v>0.04024825783972125</v>
       </c>
       <c r="M2">
-        <v>26.087</v>
+        <v>68.33</v>
       </c>
       <c r="N2">
-        <v>0.0100597717106278</v>
+        <v>0.0269812438302073</v>
       </c>
       <c r="O2">
-        <v>0.2953691123188406</v>
+        <v>0.7394221404609891</v>
       </c>
       <c r="P2">
-        <v>26.087</v>
+        <v>58.23</v>
       </c>
       <c r="Q2">
-        <v>0.0100597717106278</v>
+        <v>0.02299308983218164</v>
       </c>
       <c r="R2">
-        <v>0.2953691123188406</v>
+        <v>0.6301266096742777</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1478120883945558</v>
       </c>
       <c r="U2">
-        <v>144.2</v>
+        <v>190.4</v>
       </c>
       <c r="V2">
-        <v>0.05560697208082678</v>
+        <v>0.07518262586377097</v>
       </c>
       <c r="W2">
-        <v>0.08396090370132991</v>
+        <v>0.09054054054054055</v>
       </c>
       <c r="X2">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y2">
-        <v>0.01790260624400612</v>
+        <v>0.02700272383317935</v>
       </c>
       <c r="Z2">
-        <v>2.639990180434516</v>
+        <v>2.381772397026423</v>
       </c>
       <c r="AA2">
-        <v>0.1593248245198275</v>
+        <v>0.1334230493915533</v>
       </c>
       <c r="AB2">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC2">
-        <v>0.09326652706250375</v>
+        <v>0.06988523268419214</v>
       </c>
       <c r="AD2">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>11.78799602619153</v>
       </c>
       <c r="AF2">
-        <v>31.3</v>
+        <v>42.18799602619153</v>
       </c>
       <c r="AG2">
-        <v>-112.9</v>
+        <v>-148.2120039738085</v>
       </c>
       <c r="AH2">
-        <v>0.01192608115831587</v>
+        <v>0.01638567317333403</v>
       </c>
       <c r="AI2">
-        <v>0.02749231444883619</v>
+        <v>0.03142523147400154</v>
       </c>
       <c r="AJ2">
-        <v>-0.04551868725557393</v>
+        <v>-0.06216195535976701</v>
       </c>
       <c r="AK2">
-        <v>-0.1135472191491501</v>
+        <v>-0.1286464267356528</v>
       </c>
       <c r="AL2">
-        <v>53.727</v>
+        <v>47.125</v>
       </c>
       <c r="AM2">
-        <v>53.088</v>
+        <v>47.125</v>
       </c>
       <c r="AN2">
-        <v>0.1494746895893028</v>
+        <v>0.1401373715023279</v>
       </c>
       <c r="AO2">
-        <v>3.75230331118432</v>
+        <v>4.350132625994695</v>
       </c>
       <c r="AP2">
-        <v>-0.5391595033428844</v>
+        <v>-0.683225021775727</v>
       </c>
       <c r="AQ2">
-        <v>3.79746835443038</v>
+        <v>4.350132625994695</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.185</v>
+        <v>0.186</v>
       </c>
       <c r="E3">
-        <v>-0.00703</v>
+        <v>0.00446</v>
       </c>
       <c r="G3">
-        <v>0.0777687296416938</v>
+        <v>0.081436680991034</v>
       </c>
       <c r="H3">
-        <v>0.0777687296416938</v>
+        <v>0.081436680991034</v>
       </c>
       <c r="I3">
-        <v>0.08562121917170776</v>
+        <v>0.08062624054048581</v>
       </c>
       <c r="J3">
-        <v>0.0704429121367232</v>
+        <v>0.0670520113638583</v>
       </c>
       <c r="K3">
-        <v>52.4</v>
+        <v>55.1</v>
       </c>
       <c r="L3">
-        <v>0.03047929269427641</v>
+        <v>0.02923232001697703</v>
       </c>
       <c r="M3">
-        <v>0.857</v>
+        <v>31.2</v>
       </c>
       <c r="N3">
-        <v>0.0003913778143124629</v>
+        <v>0.01480989224854037</v>
       </c>
       <c r="O3">
-        <v>0.01635496183206107</v>
+        <v>0.5662431941923775</v>
       </c>
       <c r="P3">
-        <v>0.857</v>
+        <v>31.2</v>
       </c>
       <c r="Q3">
-        <v>0.0003913778143124629</v>
+        <v>0.01480989224854037</v>
       </c>
       <c r="R3">
-        <v>0.01635496183206107</v>
+        <v>0.5662431941923775</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>85.8</v>
+        <v>137</v>
       </c>
       <c r="V3">
-        <v>0.03918344978764215</v>
+        <v>0.06503061660416766</v>
       </c>
       <c r="W3">
-        <v>0.08396090370132991</v>
+        <v>0.08178714561377468</v>
       </c>
       <c r="X3">
-        <v>0.06659413879099114</v>
+        <v>0.06440673389375487</v>
       </c>
       <c r="Y3">
-        <v>0.01736676491033877</v>
+        <v>0.01738041172001981</v>
       </c>
       <c r="Z3">
-        <v>3.353228008582017</v>
+        <v>2.987220061032287</v>
       </c>
       <c r="AA3">
-        <v>0.2362111459829423</v>
+        <v>0.2002991134786823</v>
       </c>
       <c r="AB3">
-        <v>0.06638053043573659</v>
+        <v>0.06394343828022246</v>
       </c>
       <c r="AC3">
-        <v>0.1698306155472057</v>
+        <v>0.1363556751984599</v>
       </c>
       <c r="AD3">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>11.78799602619153</v>
       </c>
       <c r="AF3">
-        <v>31.3</v>
+        <v>42.18799602619153</v>
       </c>
       <c r="AG3">
-        <v>-54.5</v>
+        <v>-94.81200397380847</v>
       </c>
       <c r="AH3">
-        <v>0.01409275101305718</v>
+        <v>0.01963247786958056</v>
       </c>
       <c r="AI3">
-        <v>0.04250984652994703</v>
+        <v>0.044667583075372</v>
       </c>
       <c r="AJ3">
-        <v>-0.02552454102660173</v>
+        <v>-0.047125885815253</v>
       </c>
       <c r="AK3">
-        <v>-0.08378170637970792</v>
+        <v>-0.1174159918666248</v>
       </c>
       <c r="AL3">
-        <v>53.7</v>
+        <v>46.6</v>
       </c>
       <c r="AM3">
-        <v>53.7</v>
+        <v>46.6</v>
       </c>
       <c r="AN3">
-        <v>0.2059210526315789</v>
+        <v>0.1907989706897634</v>
       </c>
       <c r="AO3">
-        <v>2.741154562383612</v>
+        <v>3.227467811158798</v>
       </c>
       <c r="AP3">
-        <v>-0.3585526315789473</v>
+        <v>-0.5950668673433029</v>
       </c>
       <c r="AQ3">
-        <v>2.741154562383612</v>
+        <v>3.227467811158798</v>
       </c>
     </row>
     <row r="4">
@@ -859,79 +862,79 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.119</v>
+        <v>0.0333</v>
       </c>
       <c r="E4">
-        <v>0.174</v>
+        <v>0.143</v>
       </c>
       <c r="G4">
-        <v>0.1364590622813156</v>
+        <v>0.1835548172757475</v>
       </c>
       <c r="H4">
-        <v>0.1364590622813156</v>
+        <v>0.1835548172757475</v>
       </c>
       <c r="I4">
-        <v>0.1550034989503149</v>
+        <v>0.1719269102990033</v>
       </c>
       <c r="J4">
-        <v>0.121974358309791</v>
+        <v>0.1371354016794412</v>
       </c>
       <c r="K4">
-        <v>30.1</v>
+        <v>28.6</v>
       </c>
       <c r="L4">
-        <v>0.1053184044786564</v>
+        <v>0.1187707641196013</v>
       </c>
       <c r="M4">
-        <v>21.3</v>
+        <v>32.4</v>
       </c>
       <c r="N4">
-        <v>0.06958510290754655</v>
+        <v>0.106020942408377</v>
       </c>
       <c r="O4">
-        <v>0.707641196013289</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="P4">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="Q4">
-        <v>0.06958510290754655</v>
+        <v>0.07297120418848167</v>
       </c>
       <c r="R4">
-        <v>0.707641196013289</v>
+        <v>0.7797202797202797</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.3117283950617283</v>
       </c>
       <c r="U4">
-        <v>47.7</v>
+        <v>40.5</v>
       </c>
       <c r="V4">
-        <v>0.1558314276380268</v>
+        <v>0.1325261780104712</v>
       </c>
       <c r="W4">
-        <v>0.1050610820244328</v>
+        <v>0.09688346883468836</v>
       </c>
       <c r="X4">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y4">
-        <v>0.03900278456710903</v>
+        <v>0.03334565212732717</v>
       </c>
       <c r="Z4">
-        <v>1.306215722120658</v>
+        <v>0.972929292929293</v>
       </c>
       <c r="AA4">
-        <v>0.1593248245198275</v>
+        <v>0.1334230493915533</v>
       </c>
       <c r="AB4">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC4">
-        <v>0.09326652706250375</v>
+        <v>0.06988523268419214</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-47.7</v>
+        <v>-40.5</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -952,28 +955,28 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1845975232198142</v>
+        <v>-0.1527725386646548</v>
       </c>
       <c r="AK4">
-        <v>-0.1846689895470383</v>
+        <v>-0.1553509781357883</v>
       </c>
       <c r="AL4">
-        <v>0.027</v>
+        <v>0.041</v>
       </c>
       <c r="AM4">
-        <v>0.027</v>
+        <v>0.041</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1640.740740740741</v>
+        <v>1009.756097560975</v>
       </c>
       <c r="AP4">
-        <v>-1.025806451612903</v>
+        <v>-0.9267734553775743</v>
       </c>
       <c r="AQ4">
-        <v>1640.740740740741</v>
+        <v>1009.756097560975</v>
       </c>
     </row>
     <row r="5">
@@ -993,46 +996,49 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.08310000000000001</v>
+        <v>0.0999</v>
       </c>
       <c r="E5">
-        <v>0.0421</v>
+        <v>0.103</v>
+      </c>
+      <c r="F5">
+        <v>0.219</v>
       </c>
       <c r="G5">
-        <v>0.08367626886145403</v>
+        <v>0.0728126834997064</v>
       </c>
       <c r="H5">
-        <v>0.08367626886145403</v>
+        <v>0.0728126834997064</v>
       </c>
       <c r="I5">
-        <v>0.06927297668038408</v>
+        <v>0.07751027598355842</v>
       </c>
       <c r="J5">
-        <v>0.05774404512382088</v>
+        <v>0.06422280010066268</v>
       </c>
       <c r="K5">
-        <v>5.82</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="L5">
-        <v>0.03991769547325102</v>
+        <v>0.05114503816793893</v>
       </c>
       <c r="M5">
-        <v>3.93</v>
+        <v>4.73</v>
       </c>
       <c r="N5">
-        <v>0.04034907597535934</v>
+        <v>0.03935108153078203</v>
       </c>
       <c r="O5">
-        <v>0.6752577319587629</v>
+        <v>0.5430539609644087</v>
       </c>
       <c r="P5">
-        <v>3.93</v>
+        <v>4.73</v>
       </c>
       <c r="Q5">
-        <v>0.04034907597535934</v>
+        <v>0.03935108153078203</v>
       </c>
       <c r="R5">
-        <v>0.6752577319587629</v>
+        <v>0.5430539609644087</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,31 +1047,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="V5">
-        <v>0.1098562628336756</v>
+        <v>0.1073211314475874</v>
       </c>
       <c r="W5">
-        <v>0.06031088082901555</v>
+        <v>0.09054054054054055</v>
       </c>
       <c r="X5">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="Y5">
-        <v>-0.005747416628308244</v>
+        <v>0.02700272383317935</v>
       </c>
       <c r="Z5">
-        <v>1.752403846153846</v>
+        <v>1.991812865497076</v>
       </c>
       <c r="AA5">
-        <v>0.101190886767465</v>
+        <v>0.1279197994987469</v>
       </c>
       <c r="AB5">
-        <v>0.06605829745732379</v>
+        <v>0.06353781670736119</v>
       </c>
       <c r="AC5">
-        <v>0.03513258931014117</v>
+        <v>0.06438198279138566</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-10.7</v>
+        <v>-12.9</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1086,25 +1092,28 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.1234140715109573</v>
+        <v>-0.1202236719478099</v>
       </c>
       <c r="AK5">
-        <v>-0.1251461988304093</v>
+        <v>-0.1537544696066746</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="AM5">
-        <v>-0.639</v>
+        <v>0.484</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>27.27272727272727</v>
+      </c>
       <c r="AP5">
-        <v>-0.9816513761467889</v>
+        <v>-0.9280575539568345</v>
       </c>
       <c r="AQ5">
-        <v>-15.80594679186228</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>
